--- a/src/main/resources/excel-templates/dept-call-setting.xlsx
+++ b/src/main/resources/excel-templates/dept-call-setting.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuaidao/Desktop/02 开发库-慧聚/2.2 需求分析/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16605" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -74,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -129,6 +127,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,20 +401,22 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,5 +445,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel-templates/dept-call-setting.xlsx
+++ b/src/main/resources/excel-templates/dept-call-setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuaidao\Codes\GitLab\Huiyan\parent\manage-web\src\main\resources\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,35 +26,131 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>部门编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫中心编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业用户名密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门（组织）</t>
+    <r>
+      <t>部门编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>呼叫中心编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>企业用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>企业用户名密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>部门用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>部门用户密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所属部门（组织）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>suo shu</t>
     </rPh>
@@ -71,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +180,13 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -401,7 +504,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/src/main/resources/excel-templates/dept-call-setting.xlsx
+++ b/src/main/resources/excel-templates/dept-call-setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuaidao\Codes\GitLab\Huiyan\parent\manage-web\src\main\resources\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,35 +26,131 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>部门编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫中心编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业用户名密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门（组织）</t>
+    <r>
+      <t>部门编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>呼叫中心编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>企业用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>企业用户名密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>部门用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>部门用户密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所属部门（组织）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>suo shu</t>
     </rPh>
@@ -71,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +180,13 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -401,7 +504,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
